--- a/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
+++ b/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoz\Documents\GitHubVisualStudio\Database\VehicleManagement\VehicleManagement\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>汽车ID</t>
   </si>
@@ -35,28 +35,14 @@
     <t>厂商</t>
   </si>
   <si>
-    <t>JPG</t>
-  </si>
-  <si>
-    <t>BWF</t>
-  </si>
-  <si>
-    <t>TMPLT</t>
-  </si>
-  <si>
-    <t>LQB</t>
-  </si>
-  <si>
-    <t>PRT</t>
-  </si>
-  <si>
-    <t>STL</t>
-  </si>
-  <si>
     <t>是否模板</t>
   </si>
   <si>
-    <t>C 200</t>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据文件地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,35 +50,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\benz2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\test.BWF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\test.LQB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\audi_a7_3d.prt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:\a.stl</t>
+    <t>C200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audi_A3_2009.TMPLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmplt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -437,7 +407,7 @@
     <col min="1" max="1" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,249 +418,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
+++ b/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
@@ -54,15 +54,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Audi_A3_2009.TMPLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tmplt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +399,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
+++ b/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>汽车ID</t>
   </si>
@@ -38,10 +38,6 @@
     <t>是否模板</t>
   </si>
   <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据文件地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,15 +50,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tmplt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,12 +395,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="66.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -418,10 +416,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -432,19 +430,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
+++ b/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoz\Documents\GitHubVisualStudio\Database\VehicleManagement\VehicleManagement\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7824"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="几何信息模板" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>汽车ID</t>
   </si>
@@ -42,23 +42,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奔驰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪(进口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Zhao\Desktop\几何模型\audi_a7_3d.prt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\benz2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\test.BWF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\test.LQB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADQ7-2015-AD(JK)-5-5-SUV-2967-ZYB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADQ7-2015-AD(JK)-5-5-SUV-2967-ZYB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADQ7-2015-AD(JK)-5-5-SUV-2967-ZYB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="66.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,27 +451,98 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
+++ b/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>汽车ID</t>
   </si>
@@ -82,16 +82,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADQ7-2015-AD(JK)-5-5-SUV-2967-ZYB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADQ7-2015-AD(JK)-5-5-SUV-2967-ZYB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADQ7-2015-AD(JK)-5-5-SUV-2967-ZYB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ADQ7-2015-AD(JK)-2967-245-180-SUV-ZYB</t>
   </si>
 </sst>
 </file>
@@ -427,7 +418,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,7 +467,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -493,7 +484,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -513,7 +504,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -530,7 +521,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>

--- a/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
+++ b/VehicleManagement/VehicleManagement/Resources/几何信息模板.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoz\Documents\GitHubVisualStudio\Database\VehicleManagement\VehicleManagement\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="7836"/>
   </bookViews>
   <sheets>
     <sheet name="几何信息模板" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>汽车ID</t>
   </si>
@@ -58,31 +58,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Zhao\Desktop\几何模型\audi_a7_3d.prt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\benz2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前视图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\test.BWF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\Users\Zhao\Desktop\几何模型\data for ziyun\test.LQB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADQ7-2015-AD(JK)-2967-245-180-SUV-ZYB</t>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪(进口)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪</t>
+  </si>
+  <si>
+    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\Audi_A3_2009.TMPLT</t>
+  </si>
+  <si>
+    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\benz2.jpg</t>
+  </si>
+  <si>
+    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\test.BWF</t>
+  </si>
+  <si>
+    <t>C:\Users\zhaoz\Desktop\奔驰\几何模型\data for ziyun\test.LQB</t>
   </si>
 </sst>
 </file>
@@ -415,20 +418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.5" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,103 +440,101 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
     </row>
